--- a/Excel Sheets/Map Toolkit SQL Server resource utilization report Template.xlsx
+++ b/Excel Sheets/Map Toolkit SQL Server resource utilization report Template.xlsx
@@ -36,7 +36,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId15"/>
+    <pivotCache cacheId="0" r:id="rId15"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="134">
   <si>
     <t>CPU</t>
   </si>
@@ -480,6 +480,12 @@
   <si>
     <t>Status</t>
   </si>
+  <si>
+    <t>SQL Services Running</t>
+  </si>
+  <si>
+    <t>SQL Services Stopped</t>
+  </si>
 </sst>
 </file>
 
@@ -611,7 +617,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -709,13 +715,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Farve1" xfId="2" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Procent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="128">
+  <dxfs count="132">
     <dxf>
       <font>
         <b val="0"/>
@@ -836,6 +845,54 @@
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2016,7 +2073,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -2031,11 +2088,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -2050,60 +2112,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2241,6 +2255,82 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2318,13 +2408,28 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -10984,6 +11089,168 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952499</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>666750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Tekstboks 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1936E260-3319-4583-8AC1-DE6A452ACCC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="161924" y="333375"/>
+          <a:ext cx="9658350" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="da-DK" sz="1800" b="1"/>
+            <a:t>SQL Virtual pltaform hardware </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="da-DK" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>details</a:t>
+          </a:r>
+          <a:endParaRPr lang="da-DK" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="da-DK" sz="1800" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>382141</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Billede 6" descr="Image result for solidq">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4584341-A520-43C4-9036-66D44B7DC683}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1266825" cy="382141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>352425</xdr:rowOff>
@@ -11134,7 +11401,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11300,7 +11567,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11344,7 +11611,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Raoul" refreshedDate="42870.576583333335" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="62">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:AA1048576" sheet="Consolidation overview - Runnin"/>
+    <worksheetSource ref="A1:AC1048576" sheet="Consolidation overview - Runnin"/>
   </cacheSource>
   <cacheFields count="27">
     <cacheField name="Computer Name" numFmtId="0">
@@ -13251,7 +13518,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Pivottabel6" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Værdier" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Pivottabel6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Værdier" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="27">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -13374,7 +13641,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Pivottabel1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Værdier" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Pivottabel1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Værdier" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="27">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -13461,7 +13728,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Pivottabel3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Værdier" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Pivottabel3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Værdier" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A1:B2" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="27">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -13548,7 +13815,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Pivottabel4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Værdier" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Pivottabel4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Værdier" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A1:C2" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="27">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -13827,9 +14094,9 @@
   <autoFilter ref="A19:D22"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Calculations"/>
-    <tableColumn id="4" name="Percentage" dataDxfId="127"/>
-    <tableColumn id="2" name="CPUs" dataDxfId="126"/>
-    <tableColumn id="3" name="Cores" dataDxfId="125"/>
+    <tableColumn id="4" name="Percentage" dataDxfId="131"/>
+    <tableColumn id="2" name="CPUs" dataDxfId="130"/>
+    <tableColumn id="3" name="Cores" dataDxfId="129"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13847,110 +14114,112 @@
     <tableColumn id="35" uniqueName="35" name="Operated By" queryTableFieldId="54"/>
     <tableColumn id="34" uniqueName="34" name="Environment" queryTableFieldId="53"/>
     <tableColumn id="2" uniqueName="2" name="Operating System" queryTableFieldId="2"/>
-    <tableColumn id="6" uniqueName="6" name="CPU" queryTableFieldId="6" dataDxfId="107"/>
-    <tableColumn id="7" uniqueName="7" name="CPU Speed (GHz)" queryTableFieldId="7" dataDxfId="106"/>
-    <tableColumn id="55" uniqueName="55" name="Number of Processors" queryTableFieldId="57" dataDxfId="105"/>
-    <tableColumn id="54" uniqueName="54" name="Number of Cores" queryTableFieldId="56" dataDxfId="104"/>
-    <tableColumn id="8" uniqueName="8" name="Logical Processor Count" queryTableFieldId="8" dataDxfId="103"/>
-    <tableColumn id="9" uniqueName="9" name="Average CPU Utilization (%)" queryTableFieldId="9" dataDxfId="102"/>
-    <tableColumn id="10" uniqueName="10" name="Maximum CPU Utilization (%)" queryTableFieldId="10" dataDxfId="101"/>
-    <tableColumn id="11" uniqueName="11" name="95th Percentile CPU Utilization (%)" queryTableFieldId="11" dataDxfId="100"/>
-    <tableColumn id="12" uniqueName="12" name="Memory (MB)" queryTableFieldId="12" dataDxfId="99"/>
-    <tableColumn id="13" uniqueName="13" name="Average Memory Utilization (GB)" queryTableFieldId="13" dataDxfId="98"/>
-    <tableColumn id="14" uniqueName="14" name="Maximum Memory Utilization (GB)" queryTableFieldId="14" dataDxfId="97"/>
-    <tableColumn id="15" uniqueName="15" name="95th Percentile Memory Utilization (GB)" queryTableFieldId="15" dataDxfId="96"/>
-    <tableColumn id="16" uniqueName="16" name="Average Disk IOPS" queryTableFieldId="16" dataDxfId="95"/>
-    <tableColumn id="17" uniqueName="17" name="Maximum Disk IOPS" queryTableFieldId="17" dataDxfId="94"/>
-    <tableColumn id="18" uniqueName="18" name="95th Percentile Disk IOPS" queryTableFieldId="18" dataDxfId="93"/>
-    <tableColumn id="19" uniqueName="19" name="Avg Disk Writes/sec" queryTableFieldId="19" dataDxfId="92"/>
-    <tableColumn id="20" uniqueName="20" name="Max Disk Writes/sec" queryTableFieldId="20" dataDxfId="91"/>
-    <tableColumn id="21" uniqueName="21" name="95th Percentile Disk Writes/sec" queryTableFieldId="21" dataDxfId="90"/>
-    <tableColumn id="22" uniqueName="22" name="Avg Disk Reads/sec" queryTableFieldId="22" dataDxfId="89"/>
-    <tableColumn id="23" uniqueName="23" name="Max Disk Reads/sec" queryTableFieldId="23" dataDxfId="88"/>
-    <tableColumn id="24" uniqueName="24" name="95th Percentile Disk Reads/sec" queryTableFieldId="24" dataDxfId="87"/>
-    <tableColumn id="25" uniqueName="25" name="Average Network Utilization (MB/s)" queryTableFieldId="25" dataDxfId="86"/>
-    <tableColumn id="26" uniqueName="26" name="Maximum Network Utilization (MB/s)" queryTableFieldId="26" dataDxfId="85"/>
-    <tableColumn id="27" uniqueName="27" name="95th Percentile Network Utilization (MB/s)" queryTableFieldId="27" dataDxfId="84"/>
-    <tableColumn id="28" uniqueName="28" name="Avg Network Bytes Sent (MB/s)" queryTableFieldId="28" dataDxfId="83"/>
-    <tableColumn id="29" uniqueName="29" name="Max Network Bytes Sent (MB/s)" queryTableFieldId="29" dataDxfId="82"/>
-    <tableColumn id="30" uniqueName="30" name="95th Percentile Network Bytes Sent (MB/s)" queryTableFieldId="30" dataDxfId="81"/>
-    <tableColumn id="31" uniqueName="31" name="Avg Network Bytes Received (MB/s)" queryTableFieldId="31" dataDxfId="80"/>
-    <tableColumn id="32" uniqueName="32" name="Max Network Bytes Received (MB/s)" queryTableFieldId="32" dataDxfId="79"/>
-    <tableColumn id="33" uniqueName="33" name="95th Percentile Network Bytes Received (MB/s)" queryTableFieldId="33" dataDxfId="78"/>
-    <tableColumn id="36" uniqueName="36" name="Average Disk Space Utilization (GB)" queryTableFieldId="36" dataDxfId="77"/>
-    <tableColumn id="37" uniqueName="37" name="Maximum Disk Space Utilization (GB)" queryTableFieldId="37" dataDxfId="76"/>
-    <tableColumn id="38" uniqueName="38" name="95th Percentile Disk Space Utilization (GB)" queryTableFieldId="38" dataDxfId="75"/>
-    <tableColumn id="39" uniqueName="39" name="Avg Disk Queue Length" queryTableFieldId="39" dataDxfId="74"/>
-    <tableColumn id="40" uniqueName="40" name="Max Disk Queue Length" queryTableFieldId="40" dataDxfId="73"/>
-    <tableColumn id="41" uniqueName="41" name="95th Percentile Disk Queue Length" queryTableFieldId="41" dataDxfId="72"/>
-    <tableColumn id="42" uniqueName="42" name="Avg Disk Read Queue Length" queryTableFieldId="42" dataDxfId="71"/>
-    <tableColumn id="43" uniqueName="43" name="Max Disk Read Queue Length" queryTableFieldId="43" dataDxfId="70"/>
-    <tableColumn id="44" uniqueName="44" name="95th Percentile Disk Read Queue Length" queryTableFieldId="44" dataDxfId="69"/>
-    <tableColumn id="45" uniqueName="45" name="Avg Disk Write Queue Length" queryTableFieldId="45" dataDxfId="68"/>
-    <tableColumn id="46" uniqueName="46" name="Max Disk Write Queue Length" queryTableFieldId="46" dataDxfId="67"/>
-    <tableColumn id="47" uniqueName="47" name="95th Percentile Disk Write Queue Length" queryTableFieldId="47" dataDxfId="66"/>
-    <tableColumn id="48" uniqueName="48" name="Avg Disk Bytes/sec" queryTableFieldId="50" dataDxfId="65"/>
-    <tableColumn id="49" uniqueName="49" name="Max Disk Bytes/sec" queryTableFieldId="49" dataDxfId="64"/>
-    <tableColumn id="50" uniqueName="50" name="95th Percentile Disk Bytes/sec" queryTableFieldId="48" dataDxfId="63"/>
+    <tableColumn id="6" uniqueName="6" name="CPU" queryTableFieldId="6" dataDxfId="102"/>
+    <tableColumn id="7" uniqueName="7" name="CPU Speed (GHz)" queryTableFieldId="7" dataDxfId="101"/>
+    <tableColumn id="55" uniqueName="55" name="Number of Processors" queryTableFieldId="57" dataDxfId="100"/>
+    <tableColumn id="54" uniqueName="54" name="Number of Cores" queryTableFieldId="56" dataDxfId="99"/>
+    <tableColumn id="8" uniqueName="8" name="Logical Processor Count" queryTableFieldId="8" dataDxfId="98"/>
+    <tableColumn id="9" uniqueName="9" name="Average CPU Utilization (%)" queryTableFieldId="9" dataDxfId="97"/>
+    <tableColumn id="10" uniqueName="10" name="Maximum CPU Utilization (%)" queryTableFieldId="10" dataDxfId="96"/>
+    <tableColumn id="11" uniqueName="11" name="95th Percentile CPU Utilization (%)" queryTableFieldId="11" dataDxfId="95"/>
+    <tableColumn id="12" uniqueName="12" name="Memory (MB)" queryTableFieldId="12" dataDxfId="94"/>
+    <tableColumn id="13" uniqueName="13" name="Average Memory Utilization (GB)" queryTableFieldId="13" dataDxfId="93"/>
+    <tableColumn id="14" uniqueName="14" name="Maximum Memory Utilization (GB)" queryTableFieldId="14" dataDxfId="92"/>
+    <tableColumn id="15" uniqueName="15" name="95th Percentile Memory Utilization (GB)" queryTableFieldId="15" dataDxfId="91"/>
+    <tableColumn id="16" uniqueName="16" name="Average Disk IOPS" queryTableFieldId="16" dataDxfId="90"/>
+    <tableColumn id="17" uniqueName="17" name="Maximum Disk IOPS" queryTableFieldId="17" dataDxfId="89"/>
+    <tableColumn id="18" uniqueName="18" name="95th Percentile Disk IOPS" queryTableFieldId="18" dataDxfId="88"/>
+    <tableColumn id="19" uniqueName="19" name="Avg Disk Writes/sec" queryTableFieldId="19" dataDxfId="87"/>
+    <tableColumn id="20" uniqueName="20" name="Max Disk Writes/sec" queryTableFieldId="20" dataDxfId="86"/>
+    <tableColumn id="21" uniqueName="21" name="95th Percentile Disk Writes/sec" queryTableFieldId="21" dataDxfId="85"/>
+    <tableColumn id="22" uniqueName="22" name="Avg Disk Reads/sec" queryTableFieldId="22" dataDxfId="84"/>
+    <tableColumn id="23" uniqueName="23" name="Max Disk Reads/sec" queryTableFieldId="23" dataDxfId="83"/>
+    <tableColumn id="24" uniqueName="24" name="95th Percentile Disk Reads/sec" queryTableFieldId="24" dataDxfId="82"/>
+    <tableColumn id="25" uniqueName="25" name="Average Network Utilization (MB/s)" queryTableFieldId="25" dataDxfId="81"/>
+    <tableColumn id="26" uniqueName="26" name="Maximum Network Utilization (MB/s)" queryTableFieldId="26" dataDxfId="80"/>
+    <tableColumn id="27" uniqueName="27" name="95th Percentile Network Utilization (MB/s)" queryTableFieldId="27" dataDxfId="79"/>
+    <tableColumn id="28" uniqueName="28" name="Avg Network Bytes Sent (MB/s)" queryTableFieldId="28" dataDxfId="78"/>
+    <tableColumn id="29" uniqueName="29" name="Max Network Bytes Sent (MB/s)" queryTableFieldId="29" dataDxfId="77"/>
+    <tableColumn id="30" uniqueName="30" name="95th Percentile Network Bytes Sent (MB/s)" queryTableFieldId="30" dataDxfId="76"/>
+    <tableColumn id="31" uniqueName="31" name="Avg Network Bytes Received (MB/s)" queryTableFieldId="31" dataDxfId="75"/>
+    <tableColumn id="32" uniqueName="32" name="Max Network Bytes Received (MB/s)" queryTableFieldId="32" dataDxfId="74"/>
+    <tableColumn id="33" uniqueName="33" name="95th Percentile Network Bytes Received (MB/s)" queryTableFieldId="33" dataDxfId="73"/>
+    <tableColumn id="36" uniqueName="36" name="Average Disk Space Utilization (GB)" queryTableFieldId="36" dataDxfId="72"/>
+    <tableColumn id="37" uniqueName="37" name="Maximum Disk Space Utilization (GB)" queryTableFieldId="37" dataDxfId="71"/>
+    <tableColumn id="38" uniqueName="38" name="95th Percentile Disk Space Utilization (GB)" queryTableFieldId="38" dataDxfId="70"/>
+    <tableColumn id="39" uniqueName="39" name="Avg Disk Queue Length" queryTableFieldId="39" dataDxfId="69"/>
+    <tableColumn id="40" uniqueName="40" name="Max Disk Queue Length" queryTableFieldId="40" dataDxfId="68"/>
+    <tableColumn id="41" uniqueName="41" name="95th Percentile Disk Queue Length" queryTableFieldId="41" dataDxfId="67"/>
+    <tableColumn id="42" uniqueName="42" name="Avg Disk Read Queue Length" queryTableFieldId="42" dataDxfId="66"/>
+    <tableColumn id="43" uniqueName="43" name="Max Disk Read Queue Length" queryTableFieldId="43" dataDxfId="65"/>
+    <tableColumn id="44" uniqueName="44" name="95th Percentile Disk Read Queue Length" queryTableFieldId="44" dataDxfId="64"/>
+    <tableColumn id="45" uniqueName="45" name="Avg Disk Write Queue Length" queryTableFieldId="45" dataDxfId="63"/>
+    <tableColumn id="46" uniqueName="46" name="Max Disk Write Queue Length" queryTableFieldId="46" dataDxfId="62"/>
+    <tableColumn id="47" uniqueName="47" name="95th Percentile Disk Write Queue Length" queryTableFieldId="47" dataDxfId="61"/>
+    <tableColumn id="48" uniqueName="48" name="Avg Disk Bytes/sec" queryTableFieldId="50" dataDxfId="60"/>
+    <tableColumn id="49" uniqueName="49" name="Max Disk Bytes/sec" queryTableFieldId="49" dataDxfId="59"/>
+    <tableColumn id="50" uniqueName="50" name="95th Percentile Disk Bytes/sec" queryTableFieldId="48" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabel6" displayName="Tabel6" ref="A1:AA3" insertRow="1" totalsRowCount="1" dataCellStyle="Normal">
-  <autoFilter ref="A1:AA2"/>
-  <tableColumns count="27">
-    <tableColumn id="1" name="Computer Name" totalsRowDxfId="53" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Machine Type" totalsRowDxfId="52" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Operated By" totalsRowDxfId="51" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Environment" totalsRowDxfId="50" dataCellStyle="Normal"/>
-    <tableColumn id="5" name="System Model" totalsRowDxfId="49" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="SiteName" totalsRowDxfId="48" dataCellStyle="Normal"/>
-    <tableColumn id="7" name="NumberOfClusteredInstances" totalsRowDxfId="47" dataCellStyle="Normal"/>
-    <tableColumn id="8" name="Current Operating System" totalsRowDxfId="46" dataCellStyle="Normal"/>
-    <tableColumn id="9" name="Operating System Architecture Type" totalsRowDxfId="45" dataCellStyle="Normal"/>
-    <tableColumn id="10" name="Number of SQL Instances" totalsRowFunction="custom" totalsRowDxfId="44" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabel6" displayName="Tabel6" ref="A1:AC3" insertRow="1" totalsRowCount="1" dataCellStyle="Normal">
+  <autoFilter ref="A1:AC2"/>
+  <tableColumns count="29">
+    <tableColumn id="1" name="Computer Name" totalsRowDxfId="57" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Machine Type" totalsRowDxfId="56" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Operated By" totalsRowDxfId="55" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Environment" totalsRowDxfId="54" dataCellStyle="Normal"/>
+    <tableColumn id="5" name="System Model" totalsRowDxfId="53" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="SiteName" totalsRowDxfId="52" dataCellStyle="Normal"/>
+    <tableColumn id="7" name="NumberOfClusteredInstances" totalsRowDxfId="51" dataCellStyle="Normal"/>
+    <tableColumn id="8" name="Current Operating System" totalsRowDxfId="50" dataCellStyle="Normal"/>
+    <tableColumn id="9" name="Operating System Architecture Type" totalsRowDxfId="49" dataCellStyle="Normal"/>
+    <tableColumn id="10" name="Number of SQL Instances" totalsRowFunction="custom" totalsRowDxfId="48" dataCellStyle="Normal">
       <totalsRowFormula>SUM(J2:J2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" name="Number Of Databases" totalsRowFunction="custom" totalsRowDxfId="43" dataCellStyle="Normal">
-      <totalsRowFormula>SUM(K2:K2)</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="12" name="Number of Processors" totalsRowFunction="custom" totalsRowDxfId="42" dataCellStyle="Normal">
-      <totalsRowFormula>SUM(L2:L2)</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="13" name="Number of Total Cores" totalsRowFunction="custom" totalsRowDxfId="41" dataCellStyle="Normal">
+    <tableColumn id="29" name="SQL Services Running" totalsRowDxfId="47"/>
+    <tableColumn id="27" name="SQL Services Stopped" totalsRowDxfId="46"/>
+    <tableColumn id="11" name="Number Of Databases" totalsRowFunction="custom" totalsRowDxfId="45" dataCellStyle="Normal">
       <totalsRowFormula>SUM(M2:M2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" name="Number of Logical Processors" totalsRowFunction="custom" totalsRowDxfId="40" dataCellStyle="Normal">
+    <tableColumn id="12" name="Number of Processors" totalsRowFunction="custom" totalsRowDxfId="44" dataCellStyle="Normal">
       <totalsRowFormula>SUM(N2:N2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" name="CPU" totalsRowDxfId="39" dataCellStyle="Normal"/>
-    <tableColumn id="16" name="System Memory (MB)" totalsRowDxfId="38" dataCellStyle="Normal"/>
-    <tableColumn id="17" name="System Memory (GB)" totalsRowFunction="custom" totalsRowDxfId="37" dataCellStyle="Normal">
-      <totalsRowFormula>SUM(Q2:Q2)</totalsRowFormula>
+    <tableColumn id="13" name="Number of Total Cores" totalsRowFunction="custom" totalsRowDxfId="43" dataCellStyle="Normal">
+      <totalsRowFormula>SUM(O2:O2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" name="Logical Disk Size (GB)" totalsRowFunction="custom" totalsRowDxfId="36" dataCellStyle="Normal">
-      <totalsRowFormula>SUM(R2:R2)</totalsRowFormula>
+    <tableColumn id="14" name="Number of Logical Processors" totalsRowFunction="custom" totalsRowDxfId="42" dataCellStyle="Normal">
+      <totalsRowFormula>SUM(P2:P2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" name="Logical Disk Free Space (GB)" totalsRowFunction="custom" totalsRowDxfId="35" dataCellStyle="Normal">
+    <tableColumn id="15" name="CPU" totalsRowDxfId="41" dataCellStyle="Normal"/>
+    <tableColumn id="16" name="System Memory (MB)" totalsRowDxfId="40" dataCellStyle="Normal"/>
+    <tableColumn id="17" name="System Memory (GB)" totalsRowFunction="custom" totalsRowDxfId="39" dataCellStyle="Normal">
       <totalsRowFormula>SUM(S2:S2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" name="Logical Disk Size (TB)" totalsRowDxfId="34" dataCellStyle="Normal"/>
-    <tableColumn id="21" name="Logical Disk Free Space (TB)" totalsRowDxfId="33" dataCellStyle="Normal"/>
-    <tableColumn id="22" name="SuccessPercent" totalsRowDxfId="32" dataCellStyle="Normal"/>
-    <tableColumn id="28" name="Kolonne1" totalsRowLabel="Average:" totalsRowDxfId="31" dataCellStyle="Normal"/>
-    <tableColumn id="23" name="ProcUtil" totalsRowFunction="custom" totalsRowDxfId="30" dataCellStyle="Normal">
-      <totalsRowFormula>AVERAGE(X2:X2)</totalsRowFormula>
+    <tableColumn id="18" name="Logical Disk Size (GB)" totalsRowFunction="custom" totalsRowDxfId="38" dataCellStyle="Normal">
+      <totalsRowFormula>SUM(T2:T2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" name="MemoryUtil" totalsRowFunction="custom" totalsRowDxfId="29" dataCellStyle="Normal">
-      <totalsRowFormula>AVERAGE(Y2:Y2)</totalsRowFormula>
+    <tableColumn id="19" name="Logical Disk Free Space (GB)" totalsRowFunction="custom" totalsRowDxfId="37" dataCellStyle="Normal">
+      <totalsRowFormula>SUM(U2:U2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" name="NetworkUtil" totalsRowFunction="custom" totalsRowDxfId="28" dataCellStyle="Normal">
+    <tableColumn id="20" name="Logical Disk Size (TB)" totalsRowDxfId="36" dataCellStyle="Normal"/>
+    <tableColumn id="21" name="Logical Disk Free Space (TB)" totalsRowDxfId="35" dataCellStyle="Normal"/>
+    <tableColumn id="22" name="SuccessPercent" totalsRowDxfId="34" dataCellStyle="Normal"/>
+    <tableColumn id="28" name="Kolonne1" totalsRowLabel="Average:" totalsRowDxfId="33" dataCellStyle="Normal"/>
+    <tableColumn id="23" name="ProcUtil" totalsRowFunction="custom" totalsRowDxfId="32" dataCellStyle="Normal">
       <totalsRowFormula>AVERAGE(Z2:Z2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="26" name="DiskIOPS" totalsRowFunction="custom" totalsRowDxfId="27" dataCellStyle="Normal">
+    <tableColumn id="24" name="MemoryUtil" totalsRowFunction="custom" totalsRowDxfId="31" dataCellStyle="Normal">
       <totalsRowFormula>AVERAGE(AA2:AA2)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="25" name="NetworkUtil" totalsRowFunction="custom" totalsRowDxfId="30" dataCellStyle="Normal">
+      <totalsRowFormula>AVERAGE(AB2:AB2)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="26" name="DiskIOPS" totalsRowFunction="custom" totalsRowDxfId="29" dataCellStyle="Normal">
+      <totalsRowFormula>AVERAGE(AC2:AC2)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -13958,59 +14227,61 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabel66" displayName="Tabel66" ref="A1:AA3" insertRow="1" totalsRowCount="1" dataCellStyle="Normal">
-  <autoFilter ref="A1:AA2"/>
-  <tableColumns count="27">
-    <tableColumn id="1" name="Computer Name" totalsRowDxfId="26" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Machine Type" totalsRowDxfId="25" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Operated By" totalsRowDxfId="24" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Environment" totalsRowDxfId="23" dataCellStyle="Normal"/>
-    <tableColumn id="5" name="System Model" totalsRowDxfId="22" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="SiteName" totalsRowDxfId="21" dataCellStyle="Normal"/>
-    <tableColumn id="7" name="NumberOfClusteredInstances" totalsRowDxfId="20" dataCellStyle="Normal"/>
-    <tableColumn id="8" name="Current Operating System" totalsRowDxfId="19" dataCellStyle="Normal"/>
-    <tableColumn id="9" name="Operating System Architecture Type" totalsRowDxfId="18" dataCellStyle="Normal"/>
-    <tableColumn id="10" name="Number of SQL Instances" totalsRowFunction="custom" totalsRowDxfId="17" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabel66" displayName="Tabel66" ref="A1:AC3" insertRow="1" totalsRowCount="1" dataCellStyle="Normal">
+  <autoFilter ref="A1:AC2"/>
+  <tableColumns count="29">
+    <tableColumn id="1" name="Computer Name" totalsRowDxfId="28" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Machine Type" totalsRowDxfId="27" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Operated By" totalsRowDxfId="26" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Environment" totalsRowDxfId="25" dataCellStyle="Normal"/>
+    <tableColumn id="5" name="System Model" totalsRowDxfId="24" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="SiteName" totalsRowDxfId="23" dataCellStyle="Normal"/>
+    <tableColumn id="7" name="NumberOfClusteredInstances" totalsRowDxfId="22" dataCellStyle="Normal"/>
+    <tableColumn id="8" name="Current Operating System" totalsRowDxfId="21" dataCellStyle="Normal"/>
+    <tableColumn id="9" name="Operating System Architecture Type" totalsRowDxfId="20" dataCellStyle="Normal"/>
+    <tableColumn id="10" name="Number of SQL Instances" totalsRowFunction="custom" totalsRowDxfId="19" dataCellStyle="Normal">
       <totalsRowFormula>SUM(J2:J2)</totalsRowFormula>
     </tableColumn>
+    <tableColumn id="29" name="SQL Services Running" totalsRowDxfId="18"/>
+    <tableColumn id="27" name="SQL Services Stopped" totalsRowDxfId="17"/>
     <tableColumn id="11" name="Number Of Databases" totalsRowFunction="custom" totalsRowDxfId="16" dataCellStyle="Normal">
-      <totalsRowFormula>SUM(K2:K2)</totalsRowFormula>
+      <totalsRowFormula>SUM(M2:M2)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="12" name="Number of Processors" totalsRowFunction="custom" totalsRowDxfId="15" dataCellStyle="Normal">
-      <totalsRowFormula>SUM(L2:L2)</totalsRowFormula>
+      <totalsRowFormula>SUM(N2:N2)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="13" name="Number of Total Cores" totalsRowFunction="custom" totalsRowDxfId="14" dataCellStyle="Normal">
-      <totalsRowFormula>SUM(M2:M2)</totalsRowFormula>
+      <totalsRowFormula>SUM(O2:O2)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="14" name="Number of Logical Processors" totalsRowFunction="custom" totalsRowDxfId="13" dataCellStyle="Normal">
-      <totalsRowFormula>SUM(N2:N2)</totalsRowFormula>
+      <totalsRowFormula>SUM(P2:P2)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="15" name="CPU" totalsRowDxfId="12" dataCellStyle="Normal"/>
     <tableColumn id="16" name="System Memory (MB)" totalsRowDxfId="11" dataCellStyle="Normal"/>
     <tableColumn id="17" name="System Memory (GB)" totalsRowFunction="custom" totalsRowDxfId="10" dataCellStyle="Normal">
-      <totalsRowFormula>SUM(Q2:Q2)</totalsRowFormula>
+      <totalsRowFormula>SUM(S2:S2)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="18" name="Logical Disk Size (GB)" totalsRowFunction="custom" totalsRowDxfId="9" dataCellStyle="Normal">
-      <totalsRowFormula>SUM(R2:R2)</totalsRowFormula>
+      <totalsRowFormula>SUM(T2:T2)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="19" name="Logical Disk Free Space (GB)" totalsRowFunction="custom" totalsRowDxfId="8" dataCellStyle="Normal">
-      <totalsRowFormula>SUM(S2:S2)</totalsRowFormula>
+      <totalsRowFormula>SUM(U2:U2)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="20" name="Logical Disk Size (TB)" totalsRowDxfId="7" dataCellStyle="Normal"/>
     <tableColumn id="21" name="Logical Disk Free Space (TB)" totalsRowDxfId="6" dataCellStyle="Normal"/>
     <tableColumn id="22" name="SuccessPercent" totalsRowDxfId="5" dataCellStyle="Normal"/>
     <tableColumn id="28" name="Kolonne1" totalsRowLabel="Average:" totalsRowDxfId="4" dataCellStyle="Normal"/>
     <tableColumn id="23" name="ProcUtil" totalsRowFunction="custom" totalsRowDxfId="3" dataCellStyle="Normal">
-      <totalsRowFormula>AVERAGE(X2:X2)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(Z2:Z2)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="24" name="MemoryUtil" totalsRowFunction="custom" totalsRowDxfId="2" dataCellStyle="Normal">
-      <totalsRowFormula>AVERAGE(Y2:Y2)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(AA2:AA2)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="25" name="NetworkUtil" totalsRowFunction="custom" totalsRowDxfId="1" dataCellStyle="Normal">
-      <totalsRowFormula>AVERAGE(Z2:Z2)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(AB2:AB2)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="26" name="DiskIOPS" totalsRowFunction="custom" totalsRowDxfId="0" dataCellStyle="Normal">
-      <totalsRowFormula>AVERAGE(AA2:AA2)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(AC2:AC2)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -14022,7 +14293,7 @@
   <autoFilter ref="F19:H21"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Calculations"/>
-    <tableColumn id="2" name="Storage GB" dataDxfId="124"/>
+    <tableColumn id="2" name="Storage GB" dataDxfId="128"/>
     <tableColumn id="4" name="Percentage"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -14034,7 +14305,7 @@
   <autoFilter ref="J19:L22"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Calculations"/>
-    <tableColumn id="2" name="Memory GB" dataDxfId="123"/>
+    <tableColumn id="2" name="Memory GB" dataDxfId="127"/>
     <tableColumn id="4" name="Percentage"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -14061,7 +14332,7 @@
     <tableColumn id="8" name="SQL Server Cluster Network Name"/>
     <tableColumn id="9" name="SQL Service State"/>
     <tableColumn id="10" name="SQL Service Start Mode"/>
-    <tableColumn id="11" name="Number Of Databases" dataDxfId="122"/>
+    <tableColumn id="11" name="Number Of Databases" dataDxfId="126"/>
     <tableColumn id="12" name="Current Operating System"/>
     <tableColumn id="13" name="Operating System Service Pack Level"/>
     <tableColumn id="14" name="Operating System Architecture Type"/>
@@ -14078,9 +14349,9 @@
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" name="Computer Name" dataCellStyle="Normal"/>
-    <tableColumn id="9" name="Machine Type" dataDxfId="121" dataCellStyle="Normal"/>
-    <tableColumn id="10" name="Operated by" dataDxfId="120" dataCellStyle="Normal"/>
-    <tableColumn id="11" name="Environment" dataDxfId="119" dataCellStyle="Normal"/>
+    <tableColumn id="9" name="Machine Type" dataDxfId="125" dataCellStyle="Normal"/>
+    <tableColumn id="10" name="Operated by" dataDxfId="124" dataCellStyle="Normal"/>
+    <tableColumn id="11" name="Environment" dataDxfId="123" dataCellStyle="Normal"/>
     <tableColumn id="2" name="SQL Server Component Name" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Component Version" dataCellStyle="Normal"/>
     <tableColumn id="4" name="Component Service Pack" dataCellStyle="Normal"/>
@@ -14135,18 +14406,18 @@
     <tableColumn id="16" uniqueName="16" name="Number of Processors" totalsRowFunction="custom" queryTableFieldId="16">
       <totalsRowFormula>SUM(H3:H3)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" uniqueName="17" name="Number of Cores" totalsRowFunction="custom" queryTableFieldId="17" dataDxfId="118" totalsRowDxfId="62">
+    <tableColumn id="17" uniqueName="17" name="Number of Cores" totalsRowFunction="custom" queryTableFieldId="17" dataDxfId="122" totalsRowDxfId="121">
       <totalsRowFormula>SUM(G3:G3)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" uniqueName="18" name="Logical Processor Count" totalsRowFunction="custom" queryTableFieldId="18" dataDxfId="117" totalsRowDxfId="61">
+    <tableColumn id="18" uniqueName="18" name="Logical Processor Count" totalsRowFunction="custom" queryTableFieldId="18" dataDxfId="120" totalsRowDxfId="119">
       <totalsRowFormula>SUM(H3:H3)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="19" uniqueName="19" name="CPU Model" queryTableFieldId="19"/>
-    <tableColumn id="20" uniqueName="20" name="System Memory (MB)" queryTableFieldId="20" dataDxfId="116" totalsRowDxfId="60"/>
-    <tableColumn id="3" uniqueName="3" name="System Memory (GB)" totalsRowFunction="custom" queryTableFieldId="28" dataDxfId="115" totalsRowDxfId="59">
+    <tableColumn id="20" uniqueName="20" name="System Memory (MB)" queryTableFieldId="20" dataDxfId="118" totalsRowDxfId="117"/>
+    <tableColumn id="3" uniqueName="3" name="System Memory (GB)" totalsRowFunction="custom" queryTableFieldId="28" dataDxfId="116" totalsRowDxfId="115">
       <totalsRowFormula>SUM(K3:K3)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" uniqueName="22" name="Logical Disk Drive Name" queryTableFieldId="22" dataDxfId="114" totalsRowDxfId="58"/>
+    <tableColumn id="22" uniqueName="22" name="Logical Disk Drive Name" queryTableFieldId="22" dataDxfId="114" totalsRowDxfId="113"/>
     <tableColumn id="4" uniqueName="4" name="Logical Disk Size (GB)" queryTableFieldId="42"/>
     <tableColumn id="5" uniqueName="5" name="Logical Disk Free Space (GB)" queryTableFieldId="41"/>
     <tableColumn id="6" uniqueName="6" name="Total Logical Disk Size (GB)" totalsRowFunction="custom" queryTableFieldId="40">
@@ -14168,15 +14439,15 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel4" displayName="Tabel4" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="113" headerRowBorderDxfId="112" tableBorderDxfId="111" totalsRowBorderDxfId="110" dataCellStyle="Normal">
-  <autoFilter ref="A1:J2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel4" displayName="Tabel4" ref="A2:J3" insertRow="1" totalsRowShown="0" headerRowDxfId="112" headerRowBorderDxfId="111" tableBorderDxfId="110" totalsRowBorderDxfId="109" dataCellStyle="Normal">
+  <autoFilter ref="A2:J3"/>
   <tableColumns count="10">
     <tableColumn id="1" name="Computer Name" dataCellStyle="Normal"/>
     <tableColumn id="2" name="Machine Type" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Environment" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Status" dataDxfId="109" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Status" dataDxfId="108" dataCellStyle="Normal"/>
     <tableColumn id="6" name="Computer Model" dataCellStyle="Normal"/>
-    <tableColumn id="10" name="CPU Model" dataDxfId="108" dataCellStyle="Normal"/>
+    <tableColumn id="10" name="CPU Model" dataDxfId="107" dataCellStyle="Normal"/>
     <tableColumn id="7" name="Number of Processors" dataCellStyle="Normal"/>
     <tableColumn id="8" name="Number of Cores" dataCellStyle="Normal"/>
     <tableColumn id="9" name="Logical Processor Count" dataCellStyle="Normal"/>
@@ -14198,16 +14469,16 @@
     <tableColumn id="11" name="Operated By"/>
     <tableColumn id="10" name="Environment"/>
     <tableColumn id="12" name="SuccessPercent2"/>
-    <tableColumn id="3" name="ProcUtil" totalsRowFunction="custom" totalsRowDxfId="57" dataCellStyle="Normal">
+    <tableColumn id="3" name="ProcUtil" totalsRowFunction="custom" totalsRowDxfId="106" dataCellStyle="Normal">
       <totalsRowFormula>PERCENTILE(F2:F3, 0.95)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="MemoryUtil" totalsRowFunction="custom" totalsRowDxfId="56" dataCellStyle="Normal">
+    <tableColumn id="4" name="MemoryUtil" totalsRowFunction="custom" totalsRowDxfId="105" dataCellStyle="Normal">
       <totalsRowFormula>PERCENTILE(G2:G3, 0.95)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="NetworkUtil" totalsRowFunction="custom" totalsRowDxfId="55" dataCellStyle="Normal">
+    <tableColumn id="5" name="NetworkUtil" totalsRowFunction="custom" totalsRowDxfId="104" dataCellStyle="Normal">
       <totalsRowFormula>PERCENTILE(H2:H3, 0.95)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="DiskIOPS" totalsRowFunction="custom" totalsRowDxfId="54" dataCellStyle="Normal">
+    <tableColumn id="6" name="DiskIOPS" totalsRowFunction="custom" totalsRowDxfId="103" dataCellStyle="Normal">
       <totalsRowFormula>PERCENTILE(I2:I3, 0.95)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -15188,10 +15459,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15205,33 +15476,33 @@
     <col min="7" max="7" width="30.28515625" customWidth="1"/>
     <col min="8" max="8" width="55.140625" customWidth="1"/>
     <col min="9" max="9" width="35.85546875" customWidth="1"/>
-    <col min="10" max="10" width="25.85546875" customWidth="1"/>
-    <col min="11" max="11" width="23" customWidth="1"/>
-    <col min="12" max="12" width="23.140625" customWidth="1"/>
-    <col min="13" max="13" width="23.5703125" customWidth="1"/>
-    <col min="14" max="14" width="29.85546875" customWidth="1"/>
-    <col min="15" max="15" width="50.85546875" customWidth="1"/>
-    <col min="16" max="16" width="23" customWidth="1"/>
-    <col min="17" max="17" width="22.42578125" customWidth="1"/>
-    <col min="18" max="18" width="22.28515625" customWidth="1"/>
-    <col min="19" max="19" width="28.5703125" customWidth="1"/>
-    <col min="20" max="20" width="21.85546875" customWidth="1"/>
-    <col min="21" max="21" width="28.140625" customWidth="1"/>
-    <col min="22" max="22" width="17.140625" customWidth="1"/>
-    <col min="23" max="23" width="17" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" customWidth="1"/>
-    <col min="27" max="27" width="12" customWidth="1"/>
-    <col min="28" max="28" width="27.5703125" customWidth="1"/>
-    <col min="29" max="29" width="16.7109375" customWidth="1"/>
-    <col min="30" max="30" width="10.140625" customWidth="1"/>
-    <col min="31" max="31" width="13.7109375" customWidth="1"/>
-    <col min="32" max="32" width="14" customWidth="1"/>
-    <col min="33" max="33" width="11" customWidth="1"/>
+    <col min="10" max="12" width="25.85546875" customWidth="1"/>
+    <col min="13" max="13" width="23" customWidth="1"/>
+    <col min="14" max="14" width="23.140625" customWidth="1"/>
+    <col min="15" max="15" width="23.5703125" customWidth="1"/>
+    <col min="16" max="16" width="29.85546875" customWidth="1"/>
+    <col min="17" max="17" width="50.85546875" customWidth="1"/>
+    <col min="18" max="18" width="23" customWidth="1"/>
+    <col min="19" max="19" width="22.42578125" customWidth="1"/>
+    <col min="20" max="20" width="22.28515625" customWidth="1"/>
+    <col min="21" max="21" width="28.5703125" customWidth="1"/>
+    <col min="22" max="22" width="21.85546875" customWidth="1"/>
+    <col min="23" max="23" width="28.140625" customWidth="1"/>
+    <col min="24" max="24" width="17.140625" customWidth="1"/>
+    <col min="25" max="25" width="17" customWidth="1"/>
+    <col min="26" max="26" width="10.5703125" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" customWidth="1"/>
+    <col min="29" max="29" width="12" customWidth="1"/>
+    <col min="30" max="30" width="27.5703125" customWidth="1"/>
+    <col min="31" max="31" width="16.7109375" customWidth="1"/>
+    <col min="32" max="32" width="10.140625" customWidth="1"/>
+    <col min="33" max="33" width="13.7109375" customWidth="1"/>
+    <col min="34" max="34" width="14" customWidth="1"/>
+    <col min="35" max="35" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -15263,79 +15534,79 @@
         <v>106</v>
       </c>
       <c r="K1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M1" t="s">
         <v>100</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>103</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>104</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>0</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>90</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>92</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>107</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>108</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>105</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>116</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>96</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>97</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>98</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
       <c r="J3" s="38">
         <f>SUM(J2:J2)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="38">
-        <f>SUM(K2:K2)</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="38">
-        <f>SUM(L2:L2)</f>
-        <v>0</v>
-      </c>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
       <c r="M3" s="38">
         <f>SUM(M2:M2)</f>
         <v>0</v>
@@ -15344,33 +15615,33 @@
         <f>SUM(N2:N2)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="38">
-        <f>SUM(Q2:Q2)</f>
+      <c r="O3" s="38">
+        <f>SUM(O2:O2)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="38">
-        <f>SUM(R2:R2)</f>
+      <c r="P3" s="38">
+        <f>SUM(P2:P2)</f>
         <v>0</v>
       </c>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
       <c r="S3" s="38">
         <f>SUM(S2:S2)</f>
         <v>0</v>
       </c>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="39" t="s">
+      <c r="T3" s="38">
+        <f>SUM(T2:T2)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="38">
+        <f>SUM(U2:U2)</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="43" t="s">
         <v>117</v>
-      </c>
-      <c r="X3" s="38" t="e">
-        <f>AVERAGE(X2:X2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y3" s="38" t="e">
-        <f>AVERAGE(Y2:Y2)</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="Z3" s="38" t="e">
         <f>AVERAGE(Z2:Z2)</f>
@@ -15380,8 +15651,16 @@
         <f>AVERAGE(AA2:AA2)</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="AB3" s="38" t="e">
+        <f>AVERAGE(AB2:AB2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC3" s="38" t="e">
+        <f>AVERAGE(AC2:AC2)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -15404,16 +15683,10 @@
       <c r="T4" s="19"/>
       <c r="U4" s="19"/>
       <c r="V4" s="19"/>
-      <c r="W4" s="20" t="s">
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="20" t="s">
         <v>118</v>
-      </c>
-      <c r="X4" s="36" t="e">
-        <f>PERCENTILE(X2:X2, 0.95)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="Y4" s="36" t="e">
-        <f>PERCENTILE(Y2:Y2, 0.95)</f>
-        <v>#NUM!</v>
       </c>
       <c r="Z4" s="36" t="e">
         <f>PERCENTILE(Z2:Z2, 0.95)</f>
@@ -15423,9 +15696,17 @@
         <f>PERCENTILE(AA2:AA2, 0.95)</f>
         <v>#NUM!</v>
       </c>
+      <c r="AB4" s="36" t="e">
+        <f>PERCENTILE(AB2:AB2, 0.95)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC4" s="36" t="e">
+        <f>PERCENTILE(AC2:AC2, 0.95)</f>
+        <v>#NUM!</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AD1:AD1048576">
+  <conditionalFormatting sqref="AF1:AF1048576">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -15437,7 +15718,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AE1048576">
+  <conditionalFormatting sqref="AG1:AG1048576">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -15449,7 +15730,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF1:AF1048576">
+  <conditionalFormatting sqref="AH1:AH1048576">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -15461,7 +15742,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG1:AG1048576">
+  <conditionalFormatting sqref="AI1:AI1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -15473,7 +15754,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2">
+  <conditionalFormatting sqref="Z2">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -15485,7 +15766,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y2">
+  <conditionalFormatting sqref="AA2">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -15497,7 +15778,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z2">
+  <conditionalFormatting sqref="AB2">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -15509,7 +15790,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2">
+  <conditionalFormatting sqref="AC2">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -16326,7 +16607,7 @@
   <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16485,10 +16766,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16507,49 +16788,65 @@
     <col min="13" max="13" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C2" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D2" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E2" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F2" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H2" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I2" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J2" s="35" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="5"/>
+    <row r="3" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -17108,10 +17405,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17126,32 +17423,33 @@
     <col min="8" max="8" width="55.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="50.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.42578125" customWidth="1"/>
-    <col min="18" max="18" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="27.5703125" customWidth="1"/>
-    <col min="29" max="29" width="16.7109375" customWidth="1"/>
-    <col min="30" max="30" width="10.140625" customWidth="1"/>
-    <col min="31" max="31" width="13.7109375" customWidth="1"/>
-    <col min="32" max="32" width="14" customWidth="1"/>
-    <col min="33" max="33" width="11" customWidth="1"/>
+    <col min="11" max="12" width="25.85546875" customWidth="1"/>
+    <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.42578125" customWidth="1"/>
+    <col min="20" max="20" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17" customWidth="1"/>
+    <col min="26" max="26" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.5703125" customWidth="1"/>
+    <col min="31" max="31" width="16.7109375" customWidth="1"/>
+    <col min="32" max="32" width="10.140625" customWidth="1"/>
+    <col min="33" max="33" width="13.7109375" customWidth="1"/>
+    <col min="34" max="34" width="14" customWidth="1"/>
+    <col min="35" max="35" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -17183,58 +17481,64 @@
         <v>106</v>
       </c>
       <c r="K1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M1" t="s">
         <v>100</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>103</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>104</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>0</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>90</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>92</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>107</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>108</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>105</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>116</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>96</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>97</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>98</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -17248,14 +17552,8 @@
         <f>SUM(J2:J2)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="38">
-        <f>SUM(K2:K2)</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="38">
-        <f>SUM(L2:L2)</f>
-        <v>0</v>
-      </c>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
       <c r="M3" s="38">
         <f>SUM(M2:M2)</f>
         <v>0</v>
@@ -17264,33 +17562,33 @@
         <f>SUM(N2:N2)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="38">
-        <f>SUM(Q2:Q2)</f>
+      <c r="O3" s="38">
+        <f>SUM(O2:O2)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="38">
-        <f>SUM(R2:R2)</f>
+      <c r="P3" s="38">
+        <f>SUM(P2:P2)</f>
         <v>0</v>
       </c>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
       <c r="S3" s="38">
         <f>SUM(S2:S2)</f>
         <v>0</v>
       </c>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
+      <c r="T3" s="38">
+        <f>SUM(T2:T2)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="38">
+        <f>SUM(U2:U2)</f>
+        <v>0</v>
+      </c>
       <c r="V3" s="37"/>
-      <c r="W3" s="39" t="s">
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="39" t="s">
         <v>117</v>
-      </c>
-      <c r="X3" s="38" t="e">
-        <f>AVERAGE(X2:X2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y3" s="38" t="e">
-        <f>AVERAGE(Y2:Y2)</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="Z3" s="38" t="e">
         <f>AVERAGE(Z2:Z2)</f>
@@ -17300,8 +17598,16 @@
         <f>AVERAGE(AA2:AA2)</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="AB3" s="38" t="e">
+        <f>AVERAGE(AB2:AB2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC3" s="38" t="e">
+        <f>AVERAGE(AC2:AC2)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -17324,16 +17630,10 @@
       <c r="T4" s="19"/>
       <c r="U4" s="19"/>
       <c r="V4" s="19"/>
-      <c r="W4" s="20" t="s">
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="20" t="s">
         <v>118</v>
-      </c>
-      <c r="X4" s="36" t="e">
-        <f>PERCENTILE(X2:X2, 0.95)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="Y4" s="36" t="e">
-        <f>PERCENTILE(Y2:Y2, 0.95)</f>
-        <v>#NUM!</v>
       </c>
       <c r="Z4" s="36" t="e">
         <f>PERCENTILE(Z2:Z2, 0.95)</f>
@@ -17343,9 +17643,17 @@
         <f>PERCENTILE(AA2:AA2, 0.95)</f>
         <v>#NUM!</v>
       </c>
+      <c r="AB4" s="36" t="e">
+        <f>PERCENTILE(AB2:AB2, 0.95)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC4" s="36" t="e">
+        <f>PERCENTILE(AC2:AC2, 0.95)</f>
+        <v>#NUM!</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AD1:AD1048576">
+  <conditionalFormatting sqref="AF1:AF1048576">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -17357,7 +17665,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AE1048576">
+  <conditionalFormatting sqref="AG1:AG1048576">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -17369,7 +17677,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF1:AF1048576">
+  <conditionalFormatting sqref="AH1:AH1048576">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -17381,7 +17689,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG1:AG1048576">
+  <conditionalFormatting sqref="AI1:AI1048576">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -17393,7 +17701,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2">
+  <conditionalFormatting sqref="Z2">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -17405,7 +17713,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y2">
+  <conditionalFormatting sqref="AA2">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -17417,7 +17725,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z2">
+  <conditionalFormatting sqref="AB2">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -17429,7 +17737,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2">
+  <conditionalFormatting sqref="AC2">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>

--- a/Excel Sheets/Map Toolkit SQL Server resource utilization report Template.xlsx
+++ b/Excel Sheets/Map Toolkit SQL Server resource utilization report Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raoul\OneDrive\MAP Toolkit Analysis\BI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Torben\OneDrive\SolidQ\Git\DataPlatformTransformation\Excel Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="10620" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="50" windowWidth="10620" windowHeight="8000"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="18" r:id="rId1"/>
@@ -706,6 +706,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -714,9 +717,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2894,7 +2894,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2987,7 +2987,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="da-DK"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3113,7 +3113,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3143,7 +3143,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3226,7 +3226,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3330,7 +3330,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="da-DK"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3439,7 +3439,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3469,7 +3469,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3552,7 +3552,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3656,7 +3656,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="da-DK"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3892,7 +3892,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3922,7 +3922,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4002,7 +4002,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4081,7 +4081,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="inEnd"/>
@@ -4150,7 +4150,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="inEnd"/>
@@ -4219,7 +4219,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="inEnd"/>
@@ -4304,7 +4304,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="da-DK"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -4414,7 +4414,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="794896480"/>
@@ -4459,7 +4459,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="794893200"/>
@@ -4500,7 +4500,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4600,7 +4600,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4724,7 +4724,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4792,7 +4792,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4860,7 +4860,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4944,7 +4944,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="da-DK"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5052,7 +5052,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="794896480"/>
@@ -5124,7 +5124,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5223,7 +5223,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5286,7 +5286,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -5354,7 +5354,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -5476,7 +5476,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -5544,7 +5544,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="da-DK"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -5707,7 +5707,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="894674064"/>
@@ -5780,7 +5780,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5810,7 +5810,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6096,7 +6096,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="894673736"/>
@@ -6141,7 +6141,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="894670456"/>
@@ -6183,7 +6183,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6213,7 +6213,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14813,293 +14813,293 @@
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.26953125" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" customWidth="1"/>
     <col min="5" max="5" width="3" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
-    <col min="9" max="9" width="2.5703125" customWidth="1"/>
-    <col min="10" max="10" width="32.7109375" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.54296875" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" customWidth="1"/>
+    <col min="8" max="8" width="19.7265625" customWidth="1"/>
+    <col min="9" max="9" width="2.54296875" customWidth="1"/>
+    <col min="10" max="10" width="32.7265625" customWidth="1"/>
+    <col min="11" max="11" width="18.7265625" customWidth="1"/>
+    <col min="12" max="12" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="40"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
       <c r="M1" s="16"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
       <c r="M2" s="16"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
       <c r="M3" s="16"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
       <c r="M4" s="16"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
       <c r="M5" s="16"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
       <c r="M6" s="16"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
       <c r="M7" s="16"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
       <c r="M8" s="16"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
       <c r="M9" s="16"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
       <c r="M10" s="16"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
       <c r="M11" s="16"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
       <c r="M12" s="16"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
       <c r="M13" s="16"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
       <c r="M14" s="16"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
       <c r="M15" s="16"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
       <c r="M16" s="16"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
       <c r="M17" s="16"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
       <c r="M18" s="16"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>125</v>
       </c>
@@ -15131,7 +15131,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>121</v>
       </c>
@@ -15163,7 +15163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="22" t="s">
         <v>123</v>
       </c>
@@ -15195,7 +15195,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>124</v>
       </c>
@@ -15218,229 +15218,229 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -15465,44 +15465,44 @@
       <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" customWidth="1"/>
+    <col min="5" max="5" width="23.453125" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" customWidth="1"/>
-    <col min="8" max="8" width="55.140625" customWidth="1"/>
-    <col min="9" max="9" width="35.85546875" customWidth="1"/>
-    <col min="10" max="12" width="25.85546875" customWidth="1"/>
+    <col min="7" max="7" width="30.26953125" customWidth="1"/>
+    <col min="8" max="8" width="55.1796875" customWidth="1"/>
+    <col min="9" max="9" width="35.81640625" customWidth="1"/>
+    <col min="10" max="12" width="25.81640625" customWidth="1"/>
     <col min="13" max="13" width="23" customWidth="1"/>
-    <col min="14" max="14" width="23.140625" customWidth="1"/>
-    <col min="15" max="15" width="23.5703125" customWidth="1"/>
-    <col min="16" max="16" width="29.85546875" customWidth="1"/>
-    <col min="17" max="17" width="50.85546875" customWidth="1"/>
+    <col min="14" max="14" width="23.1796875" customWidth="1"/>
+    <col min="15" max="15" width="23.54296875" customWidth="1"/>
+    <col min="16" max="16" width="29.81640625" customWidth="1"/>
+    <col min="17" max="17" width="50.81640625" customWidth="1"/>
     <col min="18" max="18" width="23" customWidth="1"/>
-    <col min="19" max="19" width="22.42578125" customWidth="1"/>
-    <col min="20" max="20" width="22.28515625" customWidth="1"/>
-    <col min="21" max="21" width="28.5703125" customWidth="1"/>
-    <col min="22" max="22" width="21.85546875" customWidth="1"/>
-    <col min="23" max="23" width="28.140625" customWidth="1"/>
-    <col min="24" max="24" width="17.140625" customWidth="1"/>
+    <col min="19" max="19" width="22.453125" customWidth="1"/>
+    <col min="20" max="20" width="22.26953125" customWidth="1"/>
+    <col min="21" max="21" width="28.54296875" customWidth="1"/>
+    <col min="22" max="22" width="21.81640625" customWidth="1"/>
+    <col min="23" max="23" width="28.1796875" customWidth="1"/>
+    <col min="24" max="24" width="17.1796875" customWidth="1"/>
     <col min="25" max="25" width="17" customWidth="1"/>
-    <col min="26" max="26" width="10.5703125" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" customWidth="1"/>
+    <col min="26" max="26" width="10.54296875" customWidth="1"/>
+    <col min="27" max="27" width="14.26953125" customWidth="1"/>
+    <col min="28" max="28" width="14.453125" customWidth="1"/>
     <col min="29" max="29" width="12" customWidth="1"/>
-    <col min="30" max="30" width="27.5703125" customWidth="1"/>
-    <col min="31" max="31" width="16.7109375" customWidth="1"/>
-    <col min="32" max="32" width="10.140625" customWidth="1"/>
-    <col min="33" max="33" width="13.7109375" customWidth="1"/>
+    <col min="30" max="30" width="27.54296875" customWidth="1"/>
+    <col min="31" max="31" width="16.7265625" customWidth="1"/>
+    <col min="32" max="32" width="10.1796875" customWidth="1"/>
+    <col min="33" max="33" width="13.7265625" customWidth="1"/>
     <col min="34" max="34" width="14" customWidth="1"/>
     <col min="35" max="35" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -15591,7 +15591,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" s="38"/>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -15640,7 +15640,7 @@
       <c r="V3" s="38"/>
       <c r="W3" s="38"/>
       <c r="X3" s="38"/>
-      <c r="Y3" s="43" t="s">
+      <c r="Y3" s="40" t="s">
         <v>117</v>
       </c>
       <c r="Z3" s="38" t="e">
@@ -15660,7 +15660,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -15818,16 +15818,16 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>130</v>
       </c>
@@ -15835,7 +15835,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>110</v>
       </c>
@@ -15843,7 +15843,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>111</v>
       </c>
@@ -15862,14 +15862,14 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1796875" customWidth="1"/>
+    <col min="3" max="3" width="27.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>110</v>
       </c>
@@ -15877,7 +15877,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>111</v>
       </c>
@@ -15896,13 +15896,13 @@
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>110</v>
       </c>
@@ -15910,7 +15910,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>111</v>
       </c>
@@ -15929,15 +15929,15 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="3" max="3" width="27.81640625" customWidth="1"/>
+    <col min="4" max="4" width="34.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>110</v>
       </c>
@@ -15948,7 +15948,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>111</v>
       </c>
@@ -15969,41 +15969,41 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="6" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.81640625" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="33.140625" customWidth="1"/>
-    <col min="12" max="12" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.42578125" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" style="9" customWidth="1"/>
-    <col min="15" max="15" width="55.140625" customWidth="1"/>
-    <col min="16" max="16" width="36.28515625" customWidth="1"/>
-    <col min="17" max="17" width="35.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.81640625" customWidth="1"/>
+    <col min="11" max="11" width="33.1796875" customWidth="1"/>
+    <col min="12" max="12" width="36.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.453125" customWidth="1"/>
+    <col min="14" max="14" width="22.81640625" style="9" customWidth="1"/>
+    <col min="15" max="15" width="55.1796875" customWidth="1"/>
+    <col min="16" max="16" width="36.26953125" customWidth="1"/>
+    <col min="17" max="17" width="35.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="42"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
+    <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
       <c r="L1" s="10"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -16056,160 +16056,160 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="N3" s="30"/>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="88" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="90" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="91" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="92" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="93" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="94" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="95" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="96" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="97" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="104" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="105" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="107" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="109" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="110" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="111" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="112" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="115" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="116" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="117" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="118" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="119" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="120" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="123" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="124" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="125" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="126" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="127" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="128" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="129" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="130" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="131" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="132" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="133" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="134" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="135" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="136" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="139" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="140" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="142" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="144" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="146" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="148" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="149" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="150" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="151" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="152" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="153" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="154" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="155" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="157" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="158" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="159" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="160" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="161" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="162" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="163" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="164" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="165" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="166" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="168" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="169" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="170" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="171" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="172" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="174" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="175" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="176" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="177" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="178" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="179" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="180" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="181" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="184" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="185" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="186" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="187" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="188" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="189" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="190" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="191" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="192" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="193" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="194" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="195" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="196" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="197" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="198" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="199" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="200" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="201" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="203" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="204" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="205" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="206" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="207" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="209" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="210" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="213" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="214" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="215" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="216" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="217" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="221" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="222" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="223" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="226" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="233" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
@@ -16231,35 +16231,35 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="37.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" customWidth="1"/>
+    <col min="5" max="5" width="29.81640625" customWidth="1"/>
     <col min="6" max="6" width="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.453125" customWidth="1"/>
+    <col min="8" max="8" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="34" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="42"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+    <row r="1" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -16294,199 +16294,199 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="83" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="84" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="85" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="87" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="88" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="90" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="91" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="92" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="93" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="94" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="95" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="96" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="97" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="98" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="99" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="100" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="101" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="102" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="103" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="104" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="105" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="106" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="107" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="108" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="109" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="110" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="111" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="112" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="114" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="115" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="116" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="117" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="118" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="119" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="120" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="121" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="123" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="124" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="125" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="126" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="127" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="128" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="129" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="130" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="131" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="132" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="133" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="134" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="135" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="136" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="137" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="138" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="139" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="140" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="141" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="142" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="143" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="144" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="145" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="146" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="147" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="148" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="149" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="150" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="151" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="152" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="153" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="154" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="155" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="156" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="157" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="158" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="159" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="160" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="161" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="162" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="163" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="164" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="165" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="166" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="167" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="168" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="170" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="171" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="172" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="173" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="174" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="175" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="176" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="177" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="178" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="179" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="180" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="181" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="182" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="183" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="184" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="185" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="186" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="187" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="188" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="189" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="190" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="191" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="192" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="193" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="194" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="195" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="196" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="197" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="198" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="199" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="200" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="201" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="202" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="203" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
@@ -16508,39 +16508,39 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.85546875" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" customWidth="1"/>
+    <col min="5" max="5" width="48.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.81640625" customWidth="1"/>
+    <col min="7" max="7" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="24.5703125" customWidth="1"/>
-    <col min="12" max="12" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="84.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.54296875" customWidth="1"/>
+    <col min="12" max="12" width="33.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="84.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="42"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
+    <row r="1" spans="1:15" ht="59.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -16587,7 +16587,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
     </row>
   </sheetData>
@@ -16610,46 +16610,46 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" customWidth="1"/>
+    <col min="5" max="5" width="33.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" customWidth="1"/>
+    <col min="7" max="7" width="29.7265625" customWidth="1"/>
     <col min="8" max="8" width="30" style="12" customWidth="1"/>
-    <col min="9" max="9" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7265625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="22.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.7265625" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="33" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="158.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="83.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="33.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="255.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="158.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="83.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="50.1796875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="43" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="51.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="42"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+    <row r="1" spans="1:23" ht="59.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -16720,12 +16720,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="H3" s="30"/>
       <c r="K3" s="5"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="F4">
         <f>SUM(H3:H3)</f>
         <v>0</v>
@@ -16772,35 +16772,35 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" customWidth="1"/>
-    <col min="11" max="11" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.81640625" customWidth="1"/>
+    <col min="8" max="8" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.81640625" customWidth="1"/>
+    <col min="10" max="10" width="23.54296875" customWidth="1"/>
+    <col min="11" max="11" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
+    <row r="1" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
@@ -16832,7 +16832,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -16859,32 +16859,32 @@
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" style="9" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="16.7265625" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="22.26953125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="23.7265625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="17.26953125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+    <row r="1" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -16913,13 +16913,13 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F4" s="13" t="e">
         <f>PERCENTILE(F2:F3, 0.95)</f>
         <v>#NUM!</v>
@@ -17006,65 +17006,65 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="37.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="55.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="26.28515625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="30.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" customWidth="1"/>
+    <col min="5" max="5" width="55.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="26.26953125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="30.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="37" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="36.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="35.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="37.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="42" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="24" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="33.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="33.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="34.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="33.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="33.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="34.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="39" style="3" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="38" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="39.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="44.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="33.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="44.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="55.5703125" style="3" customWidth="1"/>
-    <col min="34" max="34" width="38.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="49.140625" style="3" customWidth="1"/>
-    <col min="36" max="36" width="37.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="39.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="43.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="27.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="27.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="36.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="27.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="41.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="39.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="44.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="33.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="44.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="55.54296875" style="3" customWidth="1"/>
+    <col min="34" max="34" width="38.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="49.1796875" style="3" customWidth="1"/>
+    <col min="36" max="36" width="37.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="39.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="43.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="27.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="27.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="36.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="27.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="28.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="41.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="32" style="3" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="32.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="42.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="32.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="42.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="20" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="30.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="42"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+    <row r="1" spans="1:50" ht="59.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
       <c r="G1" s="7"/>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
@@ -17072,7 +17072,7 @@
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -17224,7 +17224,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
@@ -17411,45 +17411,45 @@
       <selection activeCell="K1" sqref="K1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="55.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="25.85546875" customWidth="1"/>
+    <col min="7" max="7" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="25.81640625" customWidth="1"/>
     <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.81640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.42578125" customWidth="1"/>
-    <col min="20" max="20" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.453125" customWidth="1"/>
+    <col min="20" max="20" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="17" customWidth="1"/>
-    <col min="26" max="26" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="12" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="27.5703125" customWidth="1"/>
-    <col min="31" max="31" width="16.7109375" customWidth="1"/>
-    <col min="32" max="32" width="10.140625" customWidth="1"/>
-    <col min="33" max="33" width="13.7109375" customWidth="1"/>
+    <col min="30" max="30" width="27.54296875" customWidth="1"/>
+    <col min="31" max="31" width="16.7265625" customWidth="1"/>
+    <col min="32" max="32" width="10.1796875" customWidth="1"/>
+    <col min="33" max="33" width="13.7265625" customWidth="1"/>
     <col min="34" max="34" width="14" customWidth="1"/>
     <col min="35" max="35" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -17538,7 +17538,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -17607,7 +17607,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
